--- a/xlsx/斯洛維尼亞_intext.xlsx
+++ b/xlsx/斯洛維尼亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="992">
   <si>
     <t>斯洛維尼亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>斯洛文尼亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_斯洛維尼亞</t>
+    <t>体育运动_体育运动_欧洲议会_斯洛維尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -1046,1246 +1046,1288 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴利阿里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴利阿里群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利古里亞海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>科西嘉岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>撒丁岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>第勒尼安海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西西里岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>黑山共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>达达尼尔海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>博斯普鲁斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基克拉泽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>克里特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>北賽普勒斯土耳其共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>约旦河西岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>加沙地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西奈半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>直布羅陀海峽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>巴勒斯坦國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>海域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>北大西洋公约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>北大西洋公约</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
+  </si>
+  <si>
+    <t>en-NATO summit</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
+  </si>
+  <si>
+    <t>en-NATO Operations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
+  </si>
+  <si>
+    <t>北約擴張</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
+  </si>
+  <si>
+    <t>en-North Atlantic Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
+  </si>
+  <si>
+    <t>en-Allied Command Transformation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
+  </si>
+  <si>
+    <t>en-NATO Parliamentary Assembly</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>北約秘書長</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
+  </si>
+  <si>
+    <t>en-Chairman of the NATO Military Committee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
+  </si>
+  <si>
+    <t>en-Supreme Allied Commander Transformation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚武装力量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>保加利亞軍事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>加拿大軍隊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
+  </si>
+  <si>
+    <t>en-Army of the Czech Republic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
+  </si>
+  <si>
+    <t>en-Estonia Defence Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
+  </si>
+  <si>
+    <t>en-Military of Iceland</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Latvian National Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Lithuanian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
+  </si>
+  <si>
+    <t>罗马尼亚武装部队</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovak Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovenian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美军</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
+  </si>
+  <si>
+    <t>en-Military of Montenegro</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
+  </si>
+  <si>
+    <t>en-Foreign relations of NATO</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
+  </si>
+  <si>
+    <t>en-Atlantic Treaty Association</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
+  </si>
+  <si>
+    <t>en-Euro-Atlantic Partnership Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
+  </si>
+  <si>
+    <t>主要非北約盟友</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
+  </si>
+  <si>
+    <t>en-Mediterranean Dialogue</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
+  </si>
+  <si>
+    <t>en-Istanbul Cooperation Initiative</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
+  </si>
+  <si>
+    <t>和平伙伴关系计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>地中海聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利時</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希臘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>法語圈國際組織</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞美尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉納法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中非共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>幾內亞比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
+  </si>
+  <si>
+    <t>新不倫瑞克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>魁北克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>比利时法语社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新喀里多尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
+  </si>
+  <si>
+    <t>安大略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>布特羅斯·布特羅斯-加利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
+  </si>
+  <si>
+    <t>庄美楷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>法语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>法語系運動會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>法國電視國際五台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴利阿里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>巴利阿里群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利古里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>科西嘉岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>撒丁岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>第勒尼安海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西西里岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亚得里亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>黑山共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>达达尼尔海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>博斯普鲁斯海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基克拉泽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>克里特岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>北賽普勒斯土耳其共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>约旦河西岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>加沙地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>直布羅陀海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>海域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>北大西洋公约</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
-  </si>
-  <si>
-    <t>en-NATO summit</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
-  </si>
-  <si>
-    <t>en-NATO Operations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
-  </si>
-  <si>
-    <t>北約擴張</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
-  </si>
-  <si>
-    <t>en-North Atlantic Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
-  </si>
-  <si>
-    <t>en-Allied Command Transformation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
-  </si>
-  <si>
-    <t>en-NATO Parliamentary Assembly</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>北約秘書長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
-  </si>
-  <si>
-    <t>en-Chairman of the NATO Military Committee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
-  </si>
-  <si>
-    <t>en-Supreme Allied Commander Transformation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚武装力量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>保加利亞軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>加拿大軍隊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
-  </si>
-  <si>
-    <t>en-Army of the Czech Republic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
-  </si>
-  <si>
-    <t>en-Estonia Defence Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
-  </si>
-  <si>
-    <t>en-Military of Iceland</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Latvian National Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Lithuanian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
-  </si>
-  <si>
-    <t>罗马尼亚武装部队</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovak Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovenian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美军</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
-  </si>
-  <si>
-    <t>en-Military of Montenegro</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
-  </si>
-  <si>
-    <t>en-Foreign relations of NATO</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
-  </si>
-  <si>
-    <t>en-Atlantic Treaty Association</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
-  </si>
-  <si>
-    <t>en-Euro-Atlantic Partnership Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
-  </si>
-  <si>
-    <t>主要非北約盟友</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
-  </si>
-  <si>
-    <t>en-Mediterranean Dialogue</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
-  </si>
-  <si>
-    <t>en-Istanbul Cooperation Initiative</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
-  </si>
-  <si>
-    <t>和平伙伴关系计划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>地中海聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>法語圈國際組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
-  </si>
-  <si>
-    <t>新不倫瑞克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>魁北克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>比利时法语社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新喀里多尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
-  </si>
-  <si>
-    <t>安大略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>布特羅斯·布特羅斯-加利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
-  </si>
-  <si>
-    <t>庄美楷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>法语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>法語系運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>法國電視國際五台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -3297,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -8571,7 +8613,7 @@
         <v>344</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8600,7 +8642,7 @@
         <v>346</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8629,7 +8671,7 @@
         <v>348</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8658,7 +8700,7 @@
         <v>350</v>
       </c>
       <c r="G185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8687,7 +8729,7 @@
         <v>352</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8716,7 +8758,7 @@
         <v>354</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8745,7 +8787,7 @@
         <v>356</v>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8803,7 +8845,7 @@
         <v>360</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8832,7 +8874,7 @@
         <v>362</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8861,7 +8903,7 @@
         <v>364</v>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8890,7 +8932,7 @@
         <v>366</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8919,7 +8961,7 @@
         <v>368</v>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8948,7 +8990,7 @@
         <v>370</v>
       </c>
       <c r="G195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8977,7 +9019,7 @@
         <v>372</v>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9006,7 +9048,7 @@
         <v>374</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9035,7 +9077,7 @@
         <v>376</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -9064,7 +9106,7 @@
         <v>378</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -9093,7 +9135,7 @@
         <v>380</v>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9151,7 +9193,7 @@
         <v>384</v>
       </c>
       <c r="G202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9180,7 +9222,7 @@
         <v>386</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9238,7 +9280,7 @@
         <v>390</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9267,7 +9309,7 @@
         <v>392</v>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -9296,7 +9338,7 @@
         <v>394</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9325,7 +9367,7 @@
         <v>396</v>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9354,7 +9396,7 @@
         <v>398</v>
       </c>
       <c r="G209" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9383,7 +9425,7 @@
         <v>400</v>
       </c>
       <c r="G210" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9412,7 +9454,7 @@
         <v>402</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9441,7 +9483,7 @@
         <v>404</v>
       </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9470,7 +9512,7 @@
         <v>406</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9499,7 +9541,7 @@
         <v>408</v>
       </c>
       <c r="G214" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9528,7 +9570,7 @@
         <v>410</v>
       </c>
       <c r="G215" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9557,7 +9599,7 @@
         <v>412</v>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9586,7 +9628,7 @@
         <v>414</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9615,7 +9657,7 @@
         <v>416</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9644,7 +9686,7 @@
         <v>418</v>
       </c>
       <c r="G219" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9673,7 +9715,7 @@
         <v>420</v>
       </c>
       <c r="G220" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9702,7 +9744,7 @@
         <v>422</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9731,7 +9773,7 @@
         <v>424</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9789,7 +9831,7 @@
         <v>428</v>
       </c>
       <c r="G224" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -9818,7 +9860,7 @@
         <v>430</v>
       </c>
       <c r="G225" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9847,7 +9889,7 @@
         <v>432</v>
       </c>
       <c r="G226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9934,7 +9976,7 @@
         <v>438</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9963,7 +10005,7 @@
         <v>440</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9992,7 +10034,7 @@
         <v>442</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10050,7 +10092,7 @@
         <v>446</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10137,7 +10179,7 @@
         <v>452</v>
       </c>
       <c r="G236" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10311,7 +10353,7 @@
         <v>464</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10485,7 +10527,7 @@
         <v>476</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10566,13 +10608,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>340</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10595,10 +10637,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10624,10 +10666,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10653,13 +10695,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10682,10 +10724,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10711,10 +10753,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10740,13 +10782,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>340</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10769,13 +10811,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10798,13 +10840,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10827,13 +10869,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>397</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10856,13 +10898,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>118</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10885,10 +10927,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10914,13 +10956,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>203</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>204</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10943,13 +10985,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>412</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10972,10 +11014,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11001,10 +11043,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11030,10 +11072,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>117</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>118</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11059,10 +11101,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11088,10 +11130,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>203</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11123,7 +11165,7 @@
         <v>510</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11152,7 +11194,7 @@
         <v>512</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11175,10 +11217,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11204,10 +11246,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11233,13 +11275,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11262,13 +11304,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11291,10 +11333,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11320,13 +11362,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11349,10 +11391,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="F278" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11378,10 +11420,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11407,10 +11449,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11442,7 +11484,7 @@
         <v>528</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11471,7 +11513,7 @@
         <v>530</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11500,7 +11542,7 @@
         <v>532</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11558,7 +11600,7 @@
         <v>536</v>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11587,7 +11629,7 @@
         <v>538</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11639,13 +11681,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>435</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11668,10 +11710,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>436</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11697,13 +11739,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11726,13 +11768,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11755,10 +11797,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11784,10 +11826,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11813,13 +11855,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="F294" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11842,10 +11884,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="F295" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11871,10 +11913,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F296" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11900,10 +11942,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F297" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11929,10 +11971,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="F298" t="s">
-        <v>402</v>
+        <v>554</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11958,10 +12000,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>399</v>
+        <v>531</v>
       </c>
       <c r="F299" t="s">
-        <v>400</v>
+        <v>532</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11987,10 +12029,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>397</v>
+        <v>533</v>
       </c>
       <c r="F300" t="s">
-        <v>398</v>
+        <v>534</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12016,10 +12058,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>117</v>
+        <v>555</v>
       </c>
       <c r="F301" t="s">
-        <v>118</v>
+        <v>556</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12045,10 +12087,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>339</v>
+        <v>535</v>
       </c>
       <c r="F302" t="s">
-        <v>340</v>
+        <v>536</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12074,10 +12116,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="F303" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12103,10 +12145,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>545</v>
+        <v>411</v>
       </c>
       <c r="F304" t="s">
-        <v>546</v>
+        <v>412</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12132,10 +12174,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="F305" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12161,10 +12203,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="F306" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12190,10 +12232,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>503</v>
+        <v>117</v>
       </c>
       <c r="F307" t="s">
-        <v>504</v>
+        <v>118</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12219,10 +12261,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>547</v>
+        <v>339</v>
       </c>
       <c r="F308" t="s">
-        <v>548</v>
+        <v>340</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12248,13 +12290,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="F309" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12277,10 +12319,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F310" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12306,10 +12348,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
       <c r="F311" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12335,10 +12377,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="F312" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12364,10 +12406,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="F313" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12428,7 +12470,7 @@
         <v>562</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12544,7 +12586,7 @@
         <v>570</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12602,7 +12644,7 @@
         <v>574</v>
       </c>
       <c r="G321" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12631,7 +12673,7 @@
         <v>576</v>
       </c>
       <c r="G322" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12660,7 +12702,7 @@
         <v>578</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12718,7 +12760,7 @@
         <v>582</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12776,7 +12818,7 @@
         <v>586</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12805,7 +12847,7 @@
         <v>588</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12834,7 +12876,7 @@
         <v>590</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12921,7 +12963,7 @@
         <v>596</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13095,7 +13137,7 @@
         <v>608</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13182,7 +13224,7 @@
         <v>614</v>
       </c>
       <c r="G341" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13240,7 +13282,7 @@
         <v>618</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13298,7 +13340,7 @@
         <v>622</v>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13350,10 +13392,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>341</v>
+        <v>625</v>
       </c>
       <c r="F347" t="s">
-        <v>342</v>
+        <v>626</v>
       </c>
       <c r="G347" t="n">
         <v>5</v>
@@ -13379,13 +13421,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F348" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13408,10 +13450,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>511</v>
+        <v>629</v>
       </c>
       <c r="F349" t="s">
-        <v>512</v>
+        <v>630</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13437,13 +13479,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>521</v>
+        <v>631</v>
       </c>
       <c r="F350" t="s">
-        <v>522</v>
+        <v>632</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13466,10 +13508,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="F351" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13495,13 +13537,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>399</v>
+        <v>635</v>
       </c>
       <c r="F352" t="s">
-        <v>400</v>
+        <v>636</v>
       </c>
       <c r="G352" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13524,13 +13566,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>519</v>
+        <v>341</v>
       </c>
       <c r="F353" t="s">
-        <v>520</v>
+        <v>342</v>
       </c>
       <c r="G353" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13553,13 +13595,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="F354" t="s">
-        <v>532</v>
+        <v>638</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13582,13 +13624,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>629</v>
+        <v>523</v>
       </c>
       <c r="F355" t="s">
-        <v>630</v>
+        <v>524</v>
       </c>
       <c r="G355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13611,13 +13653,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>631</v>
+        <v>533</v>
       </c>
       <c r="F356" t="s">
-        <v>632</v>
+        <v>534</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13640,13 +13682,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F357" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13669,13 +13711,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>635</v>
+        <v>409</v>
       </c>
       <c r="F358" t="s">
-        <v>636</v>
+        <v>410</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13698,13 +13740,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>637</v>
+        <v>531</v>
       </c>
       <c r="F359" t="s">
-        <v>638</v>
+        <v>532</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13727,10 +13769,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>639</v>
+        <v>543</v>
       </c>
       <c r="F360" t="s">
-        <v>640</v>
+        <v>544</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13762,7 +13804,7 @@
         <v>642</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14052,7 +14094,7 @@
         <v>662</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14139,7 +14181,7 @@
         <v>668</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14191,13 +14233,13 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>411</v>
+        <v>671</v>
       </c>
       <c r="F376" t="s">
-        <v>412</v>
+        <v>672</v>
       </c>
       <c r="G376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14220,13 +14262,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F377" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14249,13 +14291,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F378" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G378" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14278,10 +14320,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F379" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14307,13 +14349,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F380" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14336,10 +14378,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F381" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14365,13 +14407,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>681</v>
+        <v>421</v>
       </c>
       <c r="F382" t="s">
-        <v>682</v>
+        <v>422</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14429,7 +14471,7 @@
         <v>686</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15299,7 +15341,7 @@
         <v>746</v>
       </c>
       <c r="G414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15467,13 +15509,13 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>343</v>
+        <v>757</v>
       </c>
       <c r="F420" t="s">
-        <v>344</v>
+        <v>758</v>
       </c>
       <c r="G420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15496,10 +15538,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F421" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15525,10 +15567,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F422" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15554,10 +15596,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F423" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15583,10 +15625,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F424" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15612,10 +15654,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F425" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15641,10 +15683,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F426" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15670,10 +15712,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F427" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15699,10 +15741,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F428" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15728,10 +15770,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F429" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15757,13 +15799,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F430" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15786,10 +15828,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F431" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15815,10 +15857,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F432" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15844,10 +15886,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F433" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15873,10 +15915,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F434" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15902,10 +15944,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F435" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15931,13 +15973,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F436" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -15960,13 +16002,13 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>475</v>
+        <v>791</v>
       </c>
       <c r="F437" t="s">
-        <v>476</v>
+        <v>792</v>
       </c>
       <c r="G437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -15989,10 +16031,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="F438" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16018,10 +16060,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="F439" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16047,10 +16089,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="F440" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16076,10 +16118,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F441" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16105,10 +16147,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F442" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16134,13 +16176,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>797</v>
+        <v>487</v>
       </c>
       <c r="F443" t="s">
-        <v>798</v>
+        <v>488</v>
       </c>
       <c r="G443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16163,10 +16205,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F444" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16192,10 +16234,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F445" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16221,10 +16263,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F446" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16250,10 +16292,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F447" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16279,10 +16321,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F448" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16308,10 +16350,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F449" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16337,10 +16379,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F450" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16366,10 +16408,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F451" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16395,10 +16437,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F452" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16424,10 +16466,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F453" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16453,10 +16495,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F454" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16482,10 +16524,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F455" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16511,10 +16553,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F456" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16540,10 +16582,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F457" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16569,10 +16611,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F458" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16598,10 +16640,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F459" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16627,10 +16669,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F460" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16656,10 +16698,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F461" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16685,10 +16727,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F462" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16714,10 +16756,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F463" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16743,13 +16785,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F464" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G464" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -16772,10 +16814,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F465" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16801,13 +16843,13 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F466" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -16830,10 +16872,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F467" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16859,10 +16901,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F468" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16888,13 +16930,13 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F469" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G469" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -16917,13 +16959,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F470" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -16946,10 +16988,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>57</v>
+        <v>855</v>
       </c>
       <c r="F471" t="s">
-        <v>58</v>
+        <v>856</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16975,13 +17017,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>57</v>
+        <v>857</v>
       </c>
       <c r="F472" t="s">
-        <v>58</v>
+        <v>858</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17004,10 +17046,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>57</v>
+        <v>859</v>
       </c>
       <c r="F473" t="s">
-        <v>58</v>
+        <v>860</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17033,13 +17075,13 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>125</v>
+        <v>861</v>
       </c>
       <c r="F474" t="s">
-        <v>126</v>
+        <v>862</v>
       </c>
       <c r="G474" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17062,13 +17104,13 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="F475" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="G475" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17091,10 +17133,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="F476" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17120,13 +17162,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>857</v>
+        <v>57</v>
       </c>
       <c r="F477" t="s">
-        <v>858</v>
+        <v>58</v>
       </c>
       <c r="G477" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -17149,13 +17191,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>859</v>
+        <v>57</v>
       </c>
       <c r="F478" t="s">
-        <v>860</v>
+        <v>58</v>
       </c>
       <c r="G478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17178,13 +17220,13 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>861</v>
+        <v>57</v>
       </c>
       <c r="F479" t="s">
-        <v>862</v>
+        <v>58</v>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -17207,13 +17249,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>863</v>
+        <v>125</v>
       </c>
       <c r="F480" t="s">
-        <v>864</v>
+        <v>126</v>
       </c>
       <c r="G480" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17236,13 +17278,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F481" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G481" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17265,10 +17307,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F482" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17294,13 +17336,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>171</v>
+        <v>871</v>
       </c>
       <c r="F483" t="s">
-        <v>172</v>
+        <v>872</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17323,10 +17365,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F484" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17352,10 +17394,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="F485" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17381,13 +17423,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>117</v>
+        <v>877</v>
       </c>
       <c r="F486" t="s">
-        <v>118</v>
+        <v>878</v>
       </c>
       <c r="G486" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -17410,13 +17452,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="F487" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -17439,13 +17481,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="F488" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="G488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -17468,10 +17510,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>877</v>
+        <v>171</v>
       </c>
       <c r="F489" t="s">
-        <v>878</v>
+        <v>172</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17497,13 +17539,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F490" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="G490" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -17526,13 +17568,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F491" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -17555,13 +17597,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>883</v>
+        <v>117</v>
       </c>
       <c r="F492" t="s">
-        <v>884</v>
+        <v>118</v>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -17584,13 +17626,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F493" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -17613,13 +17655,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F494" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17642,13 +17684,13 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F495" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G495" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -17671,13 +17713,13 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F496" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G496" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -17700,10 +17742,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F497" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17729,13 +17771,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F498" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -17758,13 +17800,13 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F499" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -17787,10 +17829,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F500" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17816,13 +17858,13 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F501" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -17845,13 +17887,13 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F502" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -17874,13 +17916,13 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F503" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -17903,13 +17945,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F504" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -17932,13 +17974,13 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F505" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
@@ -17961,10 +18003,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="F506" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17990,10 +18032,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F507" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18019,13 +18061,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F508" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18048,13 +18090,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F509" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18077,10 +18119,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="F510" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18106,13 +18148,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F511" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G511" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18135,10 +18177,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>411</v>
+        <v>909</v>
       </c>
       <c r="F512" t="s">
-        <v>412</v>
+        <v>910</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18164,10 +18206,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F513" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18193,13 +18235,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="F514" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="G514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -18222,10 +18264,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="F515" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18251,10 +18293,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="F516" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18280,10 +18322,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="F517" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18309,10 +18351,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>931</v>
+        <v>421</v>
       </c>
       <c r="F518" t="s">
-        <v>932</v>
+        <v>422</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18338,10 +18380,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F519" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18367,10 +18409,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F520" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18396,10 +18438,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F521" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18425,10 +18467,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F522" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18454,10 +18496,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F523" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18483,10 +18525,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F524" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18512,13 +18554,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F525" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G525" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -18541,10 +18583,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F526" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18570,13 +18612,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F527" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -18599,10 +18641,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F528" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18628,10 +18670,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F529" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18657,10 +18699,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F530" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18686,13 +18728,13 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F531" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -18715,13 +18757,13 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F532" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G532" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -18744,13 +18786,13 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F533" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H533" t="s">
         <v>4</v>
@@ -18773,13 +18815,13 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F534" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G534" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -18802,10 +18844,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F535" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18831,10 +18873,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F536" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18860,10 +18902,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F537" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -18889,13 +18931,13 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F538" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -18918,10 +18960,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F539" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -18947,13 +18989,13 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F540" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G540" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -18976,10 +19018,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="F541" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -18988,6 +19030,180 @@
         <v>4</v>
       </c>
       <c r="I541" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>541</v>
+      </c>
+      <c r="E542" t="s">
+        <v>981</v>
+      </c>
+      <c r="F542" t="s">
+        <v>982</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1</v>
+      </c>
+      <c r="H542" t="s">
+        <v>4</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1</v>
+      </c>
+      <c r="D543" t="n">
+        <v>542</v>
+      </c>
+      <c r="E543" t="s">
+        <v>983</v>
+      </c>
+      <c r="F543" t="s">
+        <v>984</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1</v>
+      </c>
+      <c r="H543" t="s">
+        <v>4</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1</v>
+      </c>
+      <c r="D544" t="n">
+        <v>543</v>
+      </c>
+      <c r="E544" t="s">
+        <v>985</v>
+      </c>
+      <c r="F544" t="s">
+        <v>986</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1</v>
+      </c>
+      <c r="H544" t="s">
+        <v>4</v>
+      </c>
+      <c r="I544" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1</v>
+      </c>
+      <c r="D545" t="n">
+        <v>544</v>
+      </c>
+      <c r="E545" t="s">
+        <v>987</v>
+      </c>
+      <c r="F545" t="s">
+        <v>988</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1</v>
+      </c>
+      <c r="H545" t="s">
+        <v>4</v>
+      </c>
+      <c r="I545" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1</v>
+      </c>
+      <c r="D546" t="n">
+        <v>545</v>
+      </c>
+      <c r="E546" t="s">
+        <v>989</v>
+      </c>
+      <c r="F546" t="s">
+        <v>990</v>
+      </c>
+      <c r="G546" t="n">
+        <v>11</v>
+      </c>
+      <c r="H546" t="s">
+        <v>4</v>
+      </c>
+      <c r="I546" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1</v>
+      </c>
+      <c r="D547" t="n">
+        <v>546</v>
+      </c>
+      <c r="E547" t="s">
+        <v>989</v>
+      </c>
+      <c r="F547" t="s">
+        <v>991</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1</v>
+      </c>
+      <c r="H547" t="s">
+        <v>4</v>
+      </c>
+      <c r="I547" t="n">
         <v>3</v>
       </c>
     </row>
